--- a/API_Project/pet_store/Test_Cases/Tesst_Cases.xlsx
+++ b/API_Project/pet_store/Test_Cases/Tesst_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Automation_bootcamp\API_Project\pet_store\Test_Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDFBC30E-29CC-4771-A483-EC574DC4C2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBF2761-38BB-4285-8AEE-C33EC315B0DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>JSON file has bee received.</t>
   </si>
   <si>
-    <t>Store iventory.</t>
-  </si>
-  <si>
     <t>Inventory data.</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>The value is "ok".</t>
+  </si>
+  <si>
+    <t>Store inventory.</t>
   </si>
 </sst>
 </file>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E9B10-6DEB-4A0D-98B6-D1464F09588B}">
   <dimension ref="A1:C197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -742,7 +742,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1150,7 +1150,7 @@
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>3</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,10 +1264,10 @@
         <v>6</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>3</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="B116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1428,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
         <v>32</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -1552,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>16</v>
@@ -1658,10 +1658,10 @@
         <v>6</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="B160" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
         <v>3</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>16</v>
@@ -1804,10 +1804,10 @@
         <v>6</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -1836,7 +1836,7 @@
         <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -1951,7 +1951,7 @@
         <v>32</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/API_Project/pet_store/Test_Cases/Tesst_Cases.xlsx
+++ b/API_Project/pet_store/Test_Cases/Tesst_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Automation_bootcamp\API_Project\pet_store\Test_Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ECB2BE-7DFA-4AF3-8C2A-86D9332C17F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D40449-F3F4-4CB5-A892-8BD1492EDEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
   <si>
     <t>Name of the test case</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Get JSON file of the response.</t>
-  </si>
-  <si>
-    <t>JSON file has bee obtained.</t>
   </si>
   <si>
     <t>Check the value of "message" key.</t>
@@ -447,9 +444,6 @@
     </r>
   </si>
   <si>
-    <t>JSON file has been received..</t>
-  </si>
-  <si>
     <t>Send get request to the server with url:
 https://petstore.swagger.io/v2/user/logout</t>
   </si>
@@ -533,6 +527,1729 @@
   </si>
   <si>
     <t>Check the value of "firstName" key if the same of the generated firstname.</t>
+  </si>
+  <si>
+    <t>JSON file has been received:
+[
+    {
+        "id": 9223372036854572196,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572197,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572198,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Puff",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572200,
+        "category": {
+            "id": 0,
+            "name": "Jerry"
+        },
+        "name": "Mouse",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "Mouse"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572208,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572213,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572216,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Puff",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572220,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572232,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572237,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572241,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572243,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572244,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572248,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Puff",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572249,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572261,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572266,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572267,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572270,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572277,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572303,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572304,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572305,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Puff",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572314,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572318,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572341,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572344,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572347,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572348,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572349,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572355,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572357,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Puff",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572360,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572370,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572372,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572375,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572376,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572377,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572414,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572415,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572416,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572417,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Puff",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572439,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572453,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572483,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572489,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572498,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572501,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Puff",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572502,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572505,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572508,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572509,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572510,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572512,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572513,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572514,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572527,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572530,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572535,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572536,
+        "category": {
+            "id": 0,
+            "name": "dog"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572558,
+        "category": {
+            "id": 1,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 102,
+        "category": {
+            "id": 102,
+            "name": "Cat"
+        },
+        "name": "Tom",
+        "photoUrls": [
+            "CatURL"
+        ],
+        "tags": [
+            {
+                "id": 1002,
+                "name": "Angry"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572560,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572561,
+        "category": {
+            "id": 11212121212,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572562,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572565,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572568,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Puff",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 44287874,
+        "category": {
+            "id": 56142504,
+            "name": "proident in culpa"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "deserunt nisi occaecat adipisicing elit",
+            "volup"
+        ],
+        "tags": [
+            {
+                "id": 75841058,
+                "name": "enim elit labore aute"
+            },
+            {
+                "id": 81012343,
+                "name": "ullamco eiusmod aute pariatur"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 586,
+        "category": {
+            "id": 2,
+            "name": "Dogs"
+        },
+        "name": "",
+        "photoUrls": [
+            "photoUrl for pet"
+        ],
+        "tags": [
+            {
+                "id": 10,
+                "name": "tag name"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 44403346,
+        "category": {
+            "id": -7356342,
+            "name": "qui dolor"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "dolore mollit dolo",
+            "qui in laborum "
+        ],
+        "tags": [
+            {
+                "id": 29212366,
+                "name": "ullamc"
+            },
+            {
+                "id": 68937462,
+                "name": "et in sit"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572569,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 50002,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572570,
+        "category": {
+            "id": -14593227,
+            "name": "et veniam Lorem occaecat cillum"
+        },
+        "name": "ЗСУ",
+        "photoUrls": [
+            "anim amet laborum ut",
+            "fugiat adipisicing"
+        ],
+        "tags": [
+            {
+                "id": -89704684,
+                "name": "consequat irure mollit voluptate qui"
+            },
+            {
+                "id": 55112396,
+                "name": "se"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572571,
+        "category": {
+            "id": -3647201,
+            "name": "aliqua dolore"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "commodo id Lorem dolor",
+            "laborum anim non sunt"
+        ],
+        "tags": [
+            {
+                "id": -70487179,
+                "name": "magna non"
+            },
+            {
+                "id": -97224183,
+                "name": "aliquip enim"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572572,
+        "category": {
+            "id": -22028245,
+            "name": "ad labore sunt"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "commodo aute veniam",
+            "tempor"
+        ],
+        "tags": [
+            {
+                "id": 47985645,
+                "name": "quis consequat exercitation"
+            },
+            {
+                "id": 84422713,
+                "name": "fugiat id"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 420,
+        "category": {
+            "id": 42,
+            "name": "Chihuahua"
+        },
+        "name": "PasBre",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572576,
+        "category": {
+            "id": 30364987,
+            "name": "amet do"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "ad irure dolor voluptate",
+            "elit dolore minim proident"
+        ],
+        "tags": [
+            {
+                "id": -79687161,
+                "name": "nostrud sunt"
+            },
+            {
+                "id": 86727676,
+                "name": "labore nisi"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572577,
+        "category": {
+            "id": 0,
+            "name": "Pomeranian"
+        },
+        "name": "Yeontn",
+        "photoUrls": [
+            "https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwikibio.in%2Fyeontan%2F&amp;psig=AOvVaw0UdJeOGlk-jKSOtT-nplW1&amp;ust=1682581409377000&amp;source=images&amp;cd=vfe&amp;ved=0CA4QjRxqFwoTCMCQvJiuyP4CFQAAAAAdAAAAABAI"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "Dog"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572578,
+        "category": {
+            "id": 16166060,
+            "name": "Lorem aliquip"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "cupidatat magna dolore Ut",
+            "est elit consequat laboris"
+        ],
+        "tags": [
+            {
+                "id": 49478738,
+                "name": "et"
+            },
+            {
+                "id": -40327458,
+                "name": "laborum do nulla"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572579,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572589,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572596,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 2293981,
+        "category": {
+            "id": 61152320,
+            "name": "qui dolore nostrud Duis"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "in esse dolore",
+            "consectetur dolore exercitation"
+        ],
+        "tags": [
+            {
+                "id": 16333697,
+                "name": "incididunt et nostrud"
+            },
+            {
+                "id": -53725039,
+                "name": "aute fugiat"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 6089,
+        "category": {
+            "id": 6089,
+            "name": "nemo 1"
+        },
+        "name": "fishs",
+        "photoUrls": [
+            "https://w.forfun.com/fetch/ec/ec21683f58319755608a051e2a73c659.jpeg"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572607,
+        "category": {
+            "id": 0,
+            "name": "Body"
+        },
+        "name": "Body",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 5786256,
+        "category": {
+            "id": -44713072,
+            "name": "reprehenderit irure"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "ut nisi ea tempor",
+            "reprehenderit"
+        ],
+        "tags": [
+            {
+                "id": -18411144,
+                "name": "aliqua reprehenderit"
+            },
+            {
+                "id": 86685319,
+                "name": "minim reprehenderit laboris c"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854572608,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "stri</t>
+  </si>
+  <si>
+    <t>JSON file has been received:
+{
+    "id": 1,
+    "category": {
+        "id": 0,
+        "name": "string"
+    },
+    "name": "doggy",
+    "photoUrls": [
+        "string"
+    ],
+    "tags": [
+        {
+            "id": 0,
+            "name": "string"
+        }
+    ],
+    "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>JSON file has been received:
+{
+    "sold": 68,
+    "{{PetStatus-Updated}}": 2,
+    "SOLD": 1,
+    "string": 606,
+    "availeble": 1,
+    "pending": 88,
+    "available": 227,
+    "avalible": 1,
+    "{{category}}": 1
+}</t>
+  </si>
+  <si>
+    <t>JSON file has been received:
+{
+    "id": "generated",
+    "petId": "generated",
+    "quantity": "generated",
+    "shipDate": "2024-07-20T14:27:42.873+0000",
+    "status": "placed",
+    "complete": true
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response has been received:
+</t>
+  </si>
+  <si>
+    <t>JSON file has been received:
+{
+    "code": 200,
+    "type": "unknown",
+    "message": "logged in user session:1721598276985"
+}</t>
+  </si>
+  <si>
+    <t>JSON file has been received:
+{
+    "code": 200,
+    "type": "unknown",
+    "message": "ok"
+}</t>
+  </si>
+  <si>
+    <t>JSON file has been received:
+{
+  "code": 200,
+  "type": "unknown",
+  "message": "ok"
+}</t>
+  </si>
+  <si>
+    <t>Request has been sent:
+[
+  {
+    "id": 0,
+    "username": "string",
+    "firstName": "string",
+    "lastName": "string",
+    "email": "string",
+    "password": "string",
+    "phone": "string",
+    "userStatus": 0
+  },
+  {
+   "id": "generated",
+    "username": "generated",
+    "firstName": "generated",
+    "lastName": "generated",
+    "email": "string",
+    "password": "string",
+    "phone": "string",
+    "userStatus": generated
+}
+]</t>
+  </si>
+  <si>
+    <t>JSON file has been received:
+{
+  "id": 9223372036854769000,
+  "username": "string",
+  "firstName": "string",
+  "lastName": "string",
+  "email": "string",
+  "password": "string",
+  "phone": "string",
+  "userStatus": 0
+}</t>
   </si>
 </sst>
 </file>
@@ -675,7 +2392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -711,28 +2428,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,10 +2795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E9B10-6DEB-4A0D-98B6-D1464F09588B}">
-  <dimension ref="A1:C237"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C237"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1107,7 +2834,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1115,15 +2842,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>56</v>
+      <c r="B8" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1169,7 +2896,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>14</v>
@@ -1191,7 +2918,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
@@ -1208,15 +2935,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>58</v>
+      <c r="C19" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,7 +2954,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1271,8 +2998,8 @@
       <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="19" t="s">
-        <v>56</v>
+      <c r="B31" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1315,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>14</v>
@@ -1354,26 +3081,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="260.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>5</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="20" t="s">
-        <v>58</v>
+      <c r="C42" s="21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>6</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>64</v>
+      <c r="B43" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1402,7 +3129,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1417,8 +3144,8 @@
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>56</v>
+      <c r="B54" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1461,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>14</v>
@@ -1482,8 +3209,8 @@
       <c r="A63" s="3">
         <v>3</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>53</v>
+      <c r="B63" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>14</v>
@@ -1497,18 +3224,18 @@
         <v>25</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>5</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1529,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1537,7 +3264,7 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1545,15 +3272,15 @@
         <v>3</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="19" t="s">
-        <v>56</v>
+      <c r="B76" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1596,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>14</v>
@@ -1614,823 +3341,827 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+      <c r="A85" s="3">
+        <v>3</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="162.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>4</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
+        <v>6</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="5">
         <v>5</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>6</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95" s="5">
-        <v>5</v>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="19" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B101" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B102" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B105" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C105" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>1</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>1</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="127.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>4</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>5</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>58</v>
+        <v>6</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>6</v>
-      </c>
-      <c r="B112" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>7</v>
-      </c>
-      <c r="B113" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>8</v>
-      </c>
-      <c r="B114" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="15"/>
+      <c r="B114" s="19"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="16"/>
+      <c r="B115" s="19"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="16"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B119" s="5">
         <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" s="19" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B126" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>1</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>2</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>1</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>2</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>5</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <v>6</v>
       </c>
-      <c r="B127" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="B136" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A137" s="20">
         <v>7</v>
       </c>
-      <c r="B128" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
+      <c r="B137" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A138" s="20">
         <v>8</v>
       </c>
-      <c r="B131" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+      <c r="B138" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B132" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
-        <v>2</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
-        <v>1</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
-        <v>2</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
-        <v>5</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
-        <v>6</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A138" s="22">
+      <c r="B142" s="5">
         <v>7</v>
       </c>
-      <c r="B138" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A139" s="22">
-        <v>8</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B143" s="5">
-        <v>7</v>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B146" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" s="19" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B149" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B150" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B153" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C153" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>1</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>1</v>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>4</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
-        <v>6</v>
-      </c>
-      <c r="B160" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C160" s="1" t="s">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B166" s="5">
-        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B169" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B170" s="1"/>
-    </row>
-    <row r="171" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" s="19" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B172" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B173" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B173" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="10" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B176" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C176" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>1</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>1</v>
-      </c>
-      <c r="B178" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <v>4</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
-        <v>6</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B188" s="5">
         <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>71</v>
+        <v>2</v>
+      </c>
+      <c r="B191" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B192" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B194" s="19" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B195" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B196" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B197" s="6">
+      <c r="B196" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="10" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B199" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C199" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="312" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>1</v>
+      </c>
+      <c r="B200" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C200" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
-        <v>1</v>
-      </c>
-      <c r="B201" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
-        <v>4</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C204" s="18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -2438,10 +4169,10 @@
         <v>6</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -2449,233 +4180,222 @@
         <v>6</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
-        <v>6</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="8"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B214" s="5">
-        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>76</v>
+        <v>2</v>
+      </c>
+      <c r="B216" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B217" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B219" s="19" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B220" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B222" s="6">
+      <c r="B221" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="10" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B224" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C225" s="11" t="s">
+      <c r="C224" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="316.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>1</v>
+      </c>
+      <c r="B225" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C225" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
-        <v>1</v>
-      </c>
-      <c r="B226" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C226" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>3</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C227" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
-        <v>2</v>
-      </c>
-      <c r="B227" s="1" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>4</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
-        <v>3</v>
-      </c>
-      <c r="B228" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C228" s="12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
-        <v>6</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A231" s="15">
+        <v>7</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C231" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A232" s="15">
-        <v>7</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>58</v>
+        <v>8</v>
+      </c>
+      <c r="B232" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A233" s="23">
-        <v>8</v>
-      </c>
-      <c r="B233" s="19" t="s">
+      <c r="A233" s="15">
+        <v>9</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A234" s="15">
+        <v>10</v>
+      </c>
+      <c r="B234" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A235" s="15">
+        <v>11</v>
+      </c>
+      <c r="B235" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A236" s="15">
+        <v>12</v>
+      </c>
+      <c r="B236" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C233" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A234" s="23">
-        <v>9</v>
-      </c>
-      <c r="B234" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C234" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A235" s="23">
-        <v>10</v>
-      </c>
-      <c r="B235" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C235" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A236" s="23">
-        <v>11</v>
-      </c>
-      <c r="B236" s="19" t="s">
-        <v>82</v>
-      </c>
       <c r="C236" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A237" s="23">
-        <v>12</v>
-      </c>
-      <c r="B237" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C237" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/API_Project/pet_store/Test_Cases/Tesst_Cases.xlsx
+++ b/API_Project/pet_store/Test_Cases/Tesst_Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Automation_bootcamp\API_Project\pet_store\Test_Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D40449-F3F4-4CB5-A892-8BD1492EDEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09094522-E47C-4105-B27F-49BE233A771C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="105">
   <si>
     <t>Name of the test case</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t>Check the value of "pending" key.</t>
-  </si>
-  <si>
-    <t>The value is "3".</t>
   </si>
   <si>
     <t>Check value of "id" key if the same 
@@ -2186,10 +2183,6 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Response has been received:
-</t>
-  </si>
-  <si>
     <t>JSON file has been received:
 {
     "code": 200,
@@ -2239,10 +2232,1808 @@
 ]</t>
   </si>
   <si>
+    <t>Request has been sent:
+{
+    "id": 1,
+    "category": {
+        "id": 0,
+        "name": "string"
+    },
+    "name": "doggy",
+    "photoUrls": [
+        "string"
+    ],
+    "tags": [
+        {
+            "id": 0,
+            "name": "string"
+        }
+    ],
+    "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>Response has been received:
+{
+    "sold": 68,
+    "{{PetStatus-Updated}}": 2,
+    "SOLD": 1,
+    "string": 606,
+    "availeble": 1,
+    "pending": 88,
+    "available": 227,
+    "avalible": 1,
+    "{{category}}": 1
+}</t>
+  </si>
+  <si>
+    <t>Response has been received:
+{
+    "id": 1,
+    "category": {
+        "id": 0,
+        "name": "string"
+    },
+    "name": "doggy",
+    "photoUrls": [
+        "string"
+    ],
+    "tags": [
+        {
+            "id": 0,
+            "name": "string"
+        }
+    ],
+    "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>Request has been sent:
+{
+    "id": "generated",
+    "petId": "generated",
+    "quantity": "generated",
+    "shipDate": "2024-07-20T14:27:42.873+0000",
+    "status": "placed",
+    "complete": true
+}</t>
+  </si>
+  <si>
+    <t>Response has been received:
+{
+    "id": "generated",
+    "petId": "generated",
+    "quantity": "generated",
+    "shipDate": "2024-07-20T14:27:42.873+0000",
+    "status": "placed",
+    "complete": true
+}</t>
+  </si>
+  <si>
+    <t>Request has been sent:
+{
+    "id": "generated",
+    "petId": "generated",
+    "quantity": "generated",
+    "shipDate": "2024-07-20T14:27:42.873+0000",
+    "status": "placed",
+    "complete": true
+}</t>
+  </si>
+  <si>
+    <t>Response has been received:
+{
+    "id": "generated",
+    "petId": "generated",
+    "quantity": "generated",
+    "shipDate": "2024-07-20T14:27:42.873+0000",
+    "status": "placed",
+    "complete": true
+}</t>
+  </si>
+  <si>
+    <t>Response has been received:
+{
+    "code": 200,
+    "type": "unknown",
+    "message": "logged in user session:1721645761618"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request has been sent
+</t>
+  </si>
+  <si>
+    <t>Response has been received:
+{
+    "code": 200,
+    "type": "unknown",
+    "message": "ok"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response has been received:
+[
+    {
+        "id": 8,
+        "category": {
+            "id": 8,
+            "name": "Name1_CatCreated"
+        },
+        "name": "Name2_CatCreated",
+        "photoUrls": [
+            "/animal/cat"
+        ],
+        "tags": [
+            {
+                "id": 8,
+                "name": "Name3_CatCreated"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 461,
+        "category": {
+            "id": 0,
+            "name": "pigeon"
+        },
+        "name": "kalb",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 463,
+        "category": {
+            "id": 0,
+            "name": "percey"
+        },
+        "name": "percey",
+        "photoUrls": [
+            "www.test.com"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "percey"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 466,
+        "category": {
+            "id": 0,
+            "name": "den"
+        },
+        "name": "den",
+        "photoUrls": [
+            "www.test3.com"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "den"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 468,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Dragon",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 470,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Dragon",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 471,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 472,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Dragon",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 477,
+        "category": {
+            "id": 0,
+            "name": "Oregon"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 480,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "pisica",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 484,
+        "category": {
+            "id": 0,
+            "name": "Brand"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 489,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Dragon",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 490,
+        "name": "Jimmy",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [],
+        "status": "available"
+    },
+    {
+        "id": 491,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Dragon",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9222968140497180179,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "test",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9222968140497180183,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Dragon",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9222968140497180190,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Dragon",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775189,
+        "category": {
+            "id": 0,
+            "name": "dog"
+        },
+        "name": "Lala2",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775191,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775192,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Dragon",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775195,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Dragon",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775197,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Dragon",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775202,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775203,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Dragon",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775205,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "cat",
+        "photoUrls": [
+            "https://klike.net/uploads/posts/2023-01/1675061232_3-62.jpg"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775206,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775207,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Dragon",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775208,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9222968140491042131,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775209,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775212,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775213,
+        "category": {
+            "id": -3647201,
+            "name": "aliqua dolore"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "commodo id Lorem dolor",
+            "laborum anim non sunt"
+        ],
+        "tags": [
+            {
+                "id": -70487179,
+                "name": "magna non"
+            },
+            {
+                "id": -97224183,
+                "name": "aliquip enim"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775214,
+        "category": {
+            "id": -22028245,
+            "name": "ad labore sunt"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "commodo aute veniam",
+            "tempor"
+        ],
+        "tags": [
+            {
+                "id": 47985645,
+                "name": "quis consequat exercitation"
+            },
+            {
+                "id": 84422713,
+                "name": "fugiat id"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775215,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Puff",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775219,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775222,
+        "category": {
+            "id": 0,
+            "name": "pig"
+        },
+        "name": "Muu",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 112233,
+        "category": {
+            "id": 30,
+            "name": "Eq-dog"
+        },
+        "name": "Postman",
+        "photoUrls": [
+            "URLLink"
+        ],
+        "tags": [
+            {
+                "id": 10,
+                "name": "Doberman"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775223,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775225,
+        "category": {
+            "id": 0,
+            "name": "pigeon"
+        },
+        "name": "newname",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775226,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775230,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775231,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775232,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775235,
+        "category": {
+            "id": 0,
+            "name": "pig"
+        },
+        "name": "Muu",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775238,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775264,
+        "category": {
+            "id": 0,
+            "name": "pig"
+        },
+        "name": "Muu",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775289,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775290,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775291,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Puff",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 501,
+        "category": {
+            "id": 0,
+            "name": "hamster"
+        },
+        "name": "hamster kombat",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 1245,
+        "category": {
+            "id": 1245,
+            "name": "xyz"
+        },
+        "name": "xyz",
+        "photoUrls": [
+            "test"
+        ],
+        "tags": [],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775310,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775316,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775355,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775358,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775368,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Puff",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775369,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775370,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775371,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775383,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775386,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775389,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775391,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775392,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775420,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775421,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775422,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Puff",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775425,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775428,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 1448,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "happypet",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775441,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 3515,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "happypet",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 906,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "happypet",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775465,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775467,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 3100,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "happypet",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775469,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775470,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775472,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Puff",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 967,
+        "category": {
+            "id": 67,
+            "name": "string"
+        },
+        "name": "happypet",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775481,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775486,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775495,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775498,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775499,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775500,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775503,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775505,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775529,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775530,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "fish",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775532,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "Puff",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "string"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775540,
+        "category": {
+            "id": 0,
+            "name": "Jerry"
+        },
+        "name": "Mouse",
+        "photoUrls": [
+            "string"
+        ],
+        "tags": [
+            {
+                "id": 0,
+                "name": "Mouse"
+            }
+        ],
+        "status": "available"
+    },
+    {
+        "id": 9223372036854775541,
+        "category": {
+            "id": 0,
+            "name": "string"
+        },
+        "name": "doggie",
+        </t>
+  </si>
+  <si>
+    <t>pet_id and pet_name are
+generated, ignore current displayed values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">status value is generated,
+ignore current displayed values.
+</t>
+  </si>
+  <si>
+    <t>user_id, username, firstname, lastname, user_status, 
+are generated, ignore current 
+displayed values.</t>
+  </si>
+  <si>
     <t>JSON file has been received:
 {
   "id": 9223372036854769000,
-  "username": "string",
+  "username": "generated",
   "firstName": "string",
   "lastName": "string",
   "email": "string",
@@ -2251,12 +4042,15 @@
   "userStatus": 0
 }</t>
   </si>
+  <si>
+    <t>The value is "21".</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2301,6 +4095,14 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2449,9 +4251,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2460,6 +4259,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2795,10 +4597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E9B10-6DEB-4A0D-98B6-D1464F09588B}">
-  <dimension ref="A1:C236"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2806,14 +4608,15 @@
     <col min="1" max="1" width="20.796875" customWidth="1"/>
     <col min="2" max="2" width="39.3984375" customWidth="1"/>
     <col min="3" max="3" width="52.69921875" customWidth="1"/>
+    <col min="4" max="4" width="23.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="35.4" x14ac:dyDescent="0.6">
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -2821,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2829,7 +4632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -2837,7 +4640,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -2845,7 +4648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -2853,7 +4656,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -2861,7 +4664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -2869,7 +4672,7 @@
         <v>45493</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -2877,10 +4680,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
@@ -2891,7 +4694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="69" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -2902,15 +4705,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
+      <c r="C16" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2939,11 +4745,11 @@
       <c r="A19" s="3">
         <v>5</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3010,7 +4816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>6</v>
       </c>
@@ -3018,7 +4824,7 @@
         <v>45493</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>7</v>
       </c>
@@ -3026,7 +4832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>8</v>
       </c>
@@ -3037,29 +4843,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="100.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>3</v>
       </c>
@@ -3070,7 +4882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>4</v>
       </c>
@@ -3081,29 +4893,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="260.39999999999998" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>5</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>6</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3318,26 +5133,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>1</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>16</v>
+      <c r="C84" s="18" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3362,7 +5177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="162.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>5</v>
       </c>
@@ -3370,7 +5185,7 @@
         <v>25</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3381,7 +5196,7 @@
         <v>58</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3464,26 +5279,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="138" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>1</v>
       </c>
-      <c r="B106" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>2</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>16</v>
+      <c r="C107" s="18" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,7 +5331,7 @@
         <v>25</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -3524,10 +5339,10 @@
         <v>6</v>
       </c>
       <c r="B111" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -3535,10 +5350,10 @@
         <v>7</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -3546,10 +5361,10 @@
         <v>8</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3640,48 +5455,48 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="138" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>1</v>
       </c>
-      <c r="B131" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B131" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C131" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>2</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C132" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="C132" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>1</v>
       </c>
-      <c r="B133" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>2</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>16</v>
+      <c r="C134" s="18" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
@@ -3692,7 +5507,7 @@
         <v>25</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -3700,10 +5515,10 @@
         <v>6</v>
       </c>
       <c r="B136" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C136" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -3711,10 +5526,10 @@
         <v>7</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -3722,10 +5537,10 @@
         <v>8</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -3813,21 +5628,21 @@
         <v>1</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C154" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>2</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>16</v>
+      <c r="C155" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -3860,7 +5675,7 @@
         <v>25</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3957,21 +5772,21 @@
         <v>1</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C177" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>2</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>16</v>
+      <c r="C178" s="18" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4004,7 +5819,7 @@
         <v>25</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4036,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -4044,7 +5859,7 @@
         <v>2</v>
       </c>
       <c r="B191" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -4055,7 +5870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>4</v>
       </c>
@@ -4063,7 +5878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>5</v>
       </c>
@@ -4071,7 +5886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>6</v>
       </c>
@@ -4079,7 +5894,7 @@
         <v>45493</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>7</v>
       </c>
@@ -4087,7 +5902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
         <v>8</v>
       </c>
@@ -4098,18 +5913,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="312" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="312" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>1</v>
       </c>
-      <c r="B200" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C200" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C200" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D200" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>2</v>
       </c>
@@ -4120,7 +5938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>3</v>
       </c>
@@ -4131,7 +5949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>4</v>
       </c>
@@ -4142,7 +5960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>5</v>
       </c>
@@ -4150,10 +5968,10 @@
         <v>25</v>
       </c>
       <c r="C204" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>6</v>
       </c>
@@ -4164,18 +5982,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>6</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>6</v>
       </c>
@@ -4204,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4212,7 +6030,7 @@
         <v>2</v>
       </c>
       <c r="B216" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -4270,11 +6088,11 @@
       <c r="A225" s="3">
         <v>1</v>
       </c>
-      <c r="B225" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C225" s="24" t="s">
-        <v>90</v>
+      <c r="B225" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C225" s="23" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -4293,7 +6111,7 @@
         <v>3</v>
       </c>
       <c r="B227" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C227" s="12" t="s">
         <v>14</v>
@@ -4336,11 +6154,11 @@
       <c r="A231" s="15">
         <v>7</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="B231" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C231" s="18" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -4348,10 +6166,10 @@
         <v>8</v>
       </c>
       <c r="B232" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -4359,10 +6177,10 @@
         <v>9</v>
       </c>
       <c r="B233" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -4370,10 +6188,10 @@
         <v>10</v>
       </c>
       <c r="B234" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -4381,10 +6199,10 @@
         <v>11</v>
       </c>
       <c r="B235" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -4392,13 +6210,14 @@
         <v>12</v>
       </c>
       <c r="B236" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/API_Project/pet_store/Test_Cases/Tesst_Cases.xlsx
+++ b/API_Project/pet_store/Test_Cases/Tesst_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Automation_bootcamp\API_Project\pet_store\Test_Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09094522-E47C-4105-B27F-49BE233A771C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84C4275-1B4C-4233-AD05-CE3A07A55BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="110">
   <si>
     <t>Name of the test case</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Pet details.</t>
   </si>
   <si>
-    <t>Delete a pet.</t>
-  </si>
-  <si>
     <t>Get JSON file of the response.</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
   </si>
   <si>
     <t>To verify getting store inventory details.</t>
-  </si>
-  <si>
-    <t>To verify deleteing a pet proccess.</t>
   </si>
   <si>
     <t>To verify adding a new pet proccess.</t>
@@ -273,25 +267,12 @@
     </r>
   </si>
   <si>
-    <t>Send  a delete request with previous generated 
-details + pet_id.</t>
-  </si>
-  <si>
-    <t>Check vlaue of "code" key.</t>
-  </si>
-  <si>
-    <t>Value is 200.</t>
-  </si>
-  <si>
     <t>Valid web browser, valid internet connection,
 valid URL.</t>
   </si>
   <si>
     <t>Send get request to the server with url:
 https://petstore.swagger.io/v2/store/inventory</t>
-  </si>
-  <si>
-    <t>JSON file has been received.</t>
   </si>
   <si>
     <t>Check the value of "pending" key.</t>
@@ -4044,6 +4025,119 @@
   </si>
   <si>
     <t>The value is "21".</t>
+  </si>
+  <si>
+    <t>Get pet by id.</t>
+  </si>
+  <si>
+    <t>To verify receiving pet details by its id.</t>
+  </si>
+  <si>
+    <t>Pet id.</t>
+  </si>
+  <si>
+    <r>
+      <t>Send a get request to url:
+https://petstore.swagger.io/v2/pet/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{id} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with the
+generated pet_id.</t>
+    </r>
+  </si>
+  <si>
+    <t>Check if received "id" valeu equals to the 
+generated one.</t>
+  </si>
+  <si>
+    <t>Values are equal.</t>
+  </si>
+  <si>
+    <t>Check if received "status" value is "available"</t>
+  </si>
+  <si>
+    <t>Value is "available"</t>
+  </si>
+  <si>
+    <t>Response has been received:
+{
+    "id": "generated",
+    "category": {
+        "id": 0,
+        "name": "string"
+    },
+    "name": "generated",
+    "photoUrls": [
+        "string"
+    ],
+    "tags": [
+        {
+            "id": 0,
+            "name": "string"
+        }
+    ],
+    "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>JSON file has been received:
+{
+  "id": generated,
+  "category": {
+    "id": 0,
+    "name": "string"
+  },
+  "name": "generated",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "status": "available"
+}</t>
+  </si>
+  <si>
+    <t>Request has been sent:
+{
+    "id": "generated",
+    "category": {
+        "id": 0,
+        "name": "string"
+    },
+    "name": "generated",
+    "photoUrls": [
+        "string"
+    ],
+    "tags": [
+        {
+            "id": 0,
+            "name": "string"
+        }
+    ],
+    "status": "available"
+}</t>
   </si>
 </sst>
 </file>
@@ -4194,7 +4288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4252,9 +4346,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4263,6 +4354,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4597,16 +4692,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E9B10-6DEB-4A0D-98B6-D1464F09588B}">
-  <dimension ref="A1:D236"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.796875" customWidth="1"/>
-    <col min="2" max="2" width="39.3984375" customWidth="1"/>
+    <col min="2" max="2" width="42" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.69921875" customWidth="1"/>
     <col min="4" max="4" width="23.8984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -4637,7 +4732,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4645,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
@@ -4653,7 +4748,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4699,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>14</v>
@@ -4709,14 +4804,14 @@
       <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4724,7 +4819,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
@@ -4745,11 +4840,11 @@
       <c r="A19" s="3">
         <v>5</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>25</v>
+      <c r="B19" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4760,7 +4855,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4789,7 +4884,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4805,7 +4900,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4847,14 +4942,14 @@
       <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>100</v>
+      <c r="B38" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4865,10 +4960,10 @@
         <v>15</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4898,13 +4993,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>100</v>
+        <v>76</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
@@ -4912,10 +5007,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4923,7 +5018,7 @@
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>1</v>
       </c>
@@ -4931,39 +5026,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>5</v>
       </c>
@@ -4971,7 +5066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>6</v>
       </c>
@@ -4979,7 +5074,7 @@
         <v>45493</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>7</v>
       </c>
@@ -4987,7 +5082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>8</v>
       </c>
@@ -4998,1222 +5093,1264 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="276" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>1</v>
       </c>
-      <c r="B61" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="262.2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="C62" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="24"/>
+    </row>
+    <row r="63" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>3</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="262.2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>4</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>57</v>
+      <c r="B64" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>5</v>
       </c>
-      <c r="B65" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>54</v>
+      <c r="B65" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>7</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
+      <c r="A68" s="3">
+        <v>8</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B74" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>55</v>
+      <c r="B76" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="B77" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B81" s="7">
         <v>45493</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B82" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B85" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="86" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
         <v>1</v>
       </c>
-      <c r="B83" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="B86" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
         <v>2</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B87" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>3</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>4</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>5</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="C87" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
+        <v>3</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>5</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
         <v>6</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
+      <c r="B91" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B97" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B97" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B99" s="18" t="s">
-        <v>55</v>
+      <c r="B99" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B101" s="7">
+      <c r="B104" s="7">
         <v>45493</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B102" s="6">
+      <c r="B105" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B108" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C108" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="138" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+    <row r="109" spans="1:3" ht="138" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
         <v>1</v>
       </c>
-      <c r="B106" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C106" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+      <c r="B109" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
         <v>2</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B110" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C107" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+      <c r="C110" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>3</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C108" s="1" t="s">
+      <c r="B111" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>4</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="127.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="113" spans="1:3" ht="127.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>5</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+      <c r="B113" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>6</v>
       </c>
-      <c r="B111" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+      <c r="B114" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
         <v>7</v>
       </c>
-      <c r="B112" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+      <c r="B115" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
         <v>8</v>
       </c>
-      <c r="B113" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="19"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="19"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
+      <c r="B116" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="19"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="15"/>
+      <c r="B118" s="19"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="5">
+      <c r="B122" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B122" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B124" s="18" t="s">
-        <v>55</v>
+      <c r="B124" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B126" s="7">
+      <c r="B129" s="7">
         <v>45493</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B130" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B133" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C133" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="138" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+    <row r="134" spans="1:3" ht="138" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <v>1</v>
       </c>
-      <c r="B131" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C131" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
-        <v>2</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
-        <v>1</v>
-      </c>
-      <c r="B133" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C133" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
-        <v>2</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C134" s="18" t="s">
-        <v>95</v>
+      <c r="B134" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
+        <v>2</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>1</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C136" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>2</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
         <v>5</v>
       </c>
-      <c r="B135" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C135" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+      <c r="B138" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
         <v>6</v>
       </c>
-      <c r="B136" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A137" s="20">
+      <c r="B139" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A140" s="20">
         <v>7</v>
       </c>
-      <c r="B137" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A138" s="20">
+      <c r="B140" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A141" s="20">
         <v>8</v>
       </c>
-      <c r="B138" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
+      <c r="B141" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B142" s="5">
+      <c r="B145" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B145" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B146" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B147" s="18" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B149" s="7">
+      <c r="B152" s="7">
         <v>45493</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B150" s="6">
+      <c r="B153" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B156" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C156" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+    <row r="157" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
         <v>1</v>
       </c>
-      <c r="B154" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C154" s="12" t="s">
+      <c r="B157" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C157" s="12" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
-        <v>2</v>
-      </c>
-      <c r="B155" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C155" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
-        <v>3</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
-        <v>4</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C158" s="18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
+        <v>3</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>4</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>5</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
         <v>6</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B162" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="8"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B165" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B168" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B170" s="18" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="B171" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B172" s="7">
+      <c r="B175" s="7">
         <v>45493</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B173" s="6">
+      <c r="B176" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="10" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B179" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C176" s="11" t="s">
+      <c r="C179" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+    <row r="180" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
         <v>1</v>
       </c>
-      <c r="B177" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C177" s="12" t="s">
+      <c r="B180" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C180" s="12" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
-        <v>2</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C178" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
-        <v>3</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
-        <v>4</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <v>5</v>
-      </c>
-      <c r="B181" s="12" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C181" s="18" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
+        <v>3</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>4</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>5</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
         <v>6</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="8"/>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
+      <c r="B185" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="9" t="s">
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B188" s="5">
+      <c r="B191" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B191" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B193" s="18" t="s">
-        <v>55</v>
+      <c r="B193" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="B194" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B195" s="7">
+      <c r="B198" s="7">
         <v>45493</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B196" s="6">
+      <c r="B199" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="10" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B202" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C199" s="11" t="s">
+      <c r="C202" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="312" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+    <row r="203" spans="1:4" ht="312" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
         <v>1</v>
       </c>
-      <c r="B200" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C200" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D200" s="25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+      <c r="B203" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D203" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
         <v>2</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
-        <v>3</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
-        <v>4</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
-        <v>5</v>
-      </c>
-      <c r="B204" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C204" s="18" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
+        <v>4</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>5</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C207" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
         <v>6</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+      <c r="B208" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
         <v>6</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>46</v>
+      <c r="B209" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="8"/>
-      <c r="B210" s="8"/>
-      <c r="C210" s="8"/>
+      <c r="A210" s="3">
+        <v>6</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="9" t="s">
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B213" s="5">
+      <c r="B216" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B216" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B218" s="18" t="s">
-        <v>55</v>
+      <c r="B218" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="B219" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B221" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B220" s="7">
+      <c r="B223" s="7">
         <v>45493</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B221" s="6">
+      <c r="B224" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="10" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B224" s="11" t="s">
+      <c r="B227" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C224" s="11" t="s">
+      <c r="C227" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="316.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+    <row r="228" spans="1:3" ht="316.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
         <v>1</v>
       </c>
-      <c r="B225" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C225" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
-        <v>2</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
-        <v>3</v>
-      </c>
-      <c r="B227" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C227" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
-        <v>4</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>16</v>
+      <c r="B228" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C228" s="22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
+        <v>2</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>3</v>
+      </c>
+      <c r="B230" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C230" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>4</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
         <v>5</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
         <v>6</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A231" s="15">
+    <row r="234" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A234" s="15">
         <v>7</v>
       </c>
-      <c r="B231" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C231" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A232" s="15">
-        <v>8</v>
-      </c>
-      <c r="B232" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C232" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A233" s="15">
-        <v>9</v>
-      </c>
-      <c r="B233" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C233" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A234" s="15">
-        <v>10</v>
-      </c>
-      <c r="B234" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="C234" s="12" t="s">
-        <v>62</v>
+      <c r="B234" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C234" s="18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A235" s="15">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B235" s="18" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A236" s="15">
+        <v>9</v>
+      </c>
+      <c r="B236" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A237" s="15">
+        <v>10</v>
+      </c>
+      <c r="B237" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A238" s="15">
+        <v>11</v>
+      </c>
+      <c r="B238" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A239" s="15">
         <v>12</v>
       </c>
-      <c r="B236" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C236" s="12" t="s">
-        <v>62</v>
+      <c r="B239" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/API_Project/pet_store/Test_Cases/Tesst_Cases.xlsx
+++ b/API_Project/pet_store/Test_Cases/Tesst_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Automation_bootcamp\API_Project\pet_store\Test_Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84C4275-1B4C-4233-AD05-CE3A07A55BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE5CFE3-1825-4573-B30A-ACB0C4BFD1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="107">
   <si>
     <t>Name of the test case</t>
   </si>
@@ -4064,43 +4064,15 @@
     </r>
   </si>
   <si>
-    <t>Check if received "id" valeu equals to the 
-generated one.</t>
-  </si>
-  <si>
-    <t>Values are equal.</t>
-  </si>
-  <si>
     <t>Check if received "status" value is "available"</t>
   </si>
   <si>
     <t>Value is "available"</t>
-  </si>
-  <si>
-    <t>Response has been received:
-{
-    "id": "generated",
-    "category": {
-        "id": 0,
-        "name": "string"
-    },
-    "name": "generated",
-    "photoUrls": [
-        "string"
-    ],
-    "tags": [
-        {
-            "id": 0,
-            "name": "string"
-        }
-    ],
-    "status": "available"
-}</t>
   </si>
   <si>
     <t>JSON file has been received:
 {
-  "id": generated,
+  "id": 2,
   "category": {
     "id": 0,
     "name": "string"
@@ -4119,24 +4091,25 @@
 }</t>
   </si>
   <si>
-    <t>Request has been sent:
+    <t>Response has been received:
+JSON file has been received:
 {
-    "id": "generated",
-    "category": {
-        "id": 0,
-        "name": "string"
-    },
-    "name": "generated",
-    "photoUrls": [
-        "string"
-    ],
-    "tags": [
-        {
-            "id": 0,
-            "name": "string"
-        }
-    ],
-    "status": "available"
+  "id": 2,
+  "category": {
+    "id": 0,
+    "name": "string"
+  },
+  "name": "generated",
+  "photoUrls": [
+    "string"
+  ],
+  "tags": [
+    {
+      "id": 0,
+      "name": "string"
+    }
+  ],
+  "status": "available"
 }</t>
   </si>
 </sst>
@@ -4288,7 +4261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4354,10 +4327,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4692,10 +4661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E9B10-6DEB-4A0D-98B6-D1464F09588B}">
-  <dimension ref="A1:D239"/>
+  <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5093,52 +5062,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="276" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>1</v>
       </c>
-      <c r="B61" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="262.2" x14ac:dyDescent="0.25">
+      <c r="B61" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="24"/>
+    </row>
+    <row r="62" spans="1:4" ht="276" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>107</v>
+      <c r="C62" s="22" t="s">
+        <v>106</v>
       </c>
       <c r="D62" s="24"/>
     </row>
-    <row r="63" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="262.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>3</v>
       </c>
-      <c r="B63" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="262.2" x14ac:dyDescent="0.25">
+      <c r="B63" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="24"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>4</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>108</v>
+      <c r="B64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -5146,461 +5114,460 @@
         <v>5</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>6</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
-        <v>7</v>
-      </c>
-      <c r="B67" s="18" t="s">
+      <c r="B66" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C66" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>8</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>106</v>
-      </c>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="25"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="5">
+        <v>4</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="5">
-        <v>4</v>
+      <c r="A74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B77" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="B79" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>1</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="179.4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>2</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>3</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>4</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>5</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B81" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>1</v>
-      </c>
-      <c r="B86" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>2</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>3</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>18</v>
+      <c r="B88" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="5">
         <v>5</v>
       </c>
-      <c r="B90" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
-        <v>6</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B97" s="5">
-        <v>5</v>
+      <c r="A97" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B102" s="18" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="B102" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="138" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>1</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="138" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>2</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>3</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>4</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
         <v>5</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="B111" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
         <v>6</v>
       </c>
-      <c r="B104" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="B112" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>7</v>
       </c>
-      <c r="B105" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="B113" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="127.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
         <v>8</v>
       </c>
-      <c r="B108" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="138" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <v>1</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>2</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <v>3</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <v>4</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="127.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>5</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>6</v>
-      </c>
       <c r="B114" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>7</v>
-      </c>
-      <c r="B115" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
-        <v>8</v>
-      </c>
-      <c r="B116" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>56</v>
-      </c>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="19"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="15"/>
+      <c r="B116" s="19"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
-      <c r="B117" s="19"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
-      <c r="B118" s="19"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" s="5">
-        <v>6</v>
+      <c r="A122" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="B127" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B130" s="6">
+      <c r="B128" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B131" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C131" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="138" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="138" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>1</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>2</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>1</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
@@ -5610,502 +5577,502 @@
       <c r="B135" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C135" s="22" t="s">
+      <c r="C135" s="18" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>1</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C136" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>2</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C137" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
-        <v>5</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>78</v>
+        <v>6</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A138" s="20">
+        <v>7</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
-        <v>6</v>
+      <c r="A139" s="20">
+        <v>8</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A140" s="20">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143" s="5">
         <v>7</v>
       </c>
-      <c r="B140" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A141" s="20">
-        <v>8</v>
-      </c>
-      <c r="B141" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="8"/>
-      <c r="B142" s="8"/>
-      <c r="C142" s="8"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="5">
-        <v>7</v>
+      <c r="A145" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B148" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" s="18" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="B150" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>1</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>2</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>3</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>4</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
         <v>5</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B152" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B153" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B156" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
-        <v>1</v>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
-        <v>2</v>
-      </c>
-      <c r="B158" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C158" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
-        <v>3</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>18</v>
+      <c r="B159" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C159" s="18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
-        <v>5</v>
-      </c>
-      <c r="B161" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C161" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
-        <v>6</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C162" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8"/>
-      <c r="C165" s="8"/>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B168" s="5">
-        <v>8</v>
+      <c r="A168" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B171" t="s">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B172" s="1"/>
-    </row>
-    <row r="173" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B173" s="18" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="B173" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>1</v>
+      </c>
+      <c r="B178" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>2</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>3</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>4</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
         <v>5</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B175" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B176" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B179" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C179" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
-        <v>1</v>
-      </c>
-      <c r="B180" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
-        <v>2</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C181" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
-        <v>3</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>18</v>
+      <c r="B182" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C182" s="18" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
-        <v>5</v>
-      </c>
-      <c r="B184" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C184" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
-        <v>6</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C185" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="8"/>
-      <c r="B188" s="8"/>
-      <c r="C188" s="8"/>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="5">
+        <v>9</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B191" s="5">
-        <v>9</v>
+      <c r="A191" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B192" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B194" t="s">
-        <v>63</v>
+        <v>4</v>
+      </c>
+      <c r="B194" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B196" s="18" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="B196" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="317.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>1</v>
+      </c>
+      <c r="B201" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C201" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>2</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>3</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="312" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>4</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D204" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
         <v>5</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B198" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B199" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B202" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="312" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
-        <v>1</v>
-      </c>
-      <c r="B203" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C203" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D203" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
-        <v>2</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
-        <v>3</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>18</v>
+      <c r="B205" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" s="18" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
-        <v>5</v>
-      </c>
-      <c r="B207" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C207" s="18" t="s">
-        <v>81</v>
+        <v>6</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6113,128 +6080,128 @@
         <v>6</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
-        <v>6</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
-        <v>6</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C210" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="8"/>
-      <c r="B213" s="8"/>
-      <c r="C213" s="8"/>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B214" s="5">
+        <v>10</v>
+      </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B216" s="5">
-        <v>10</v>
+      <c r="A216" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B217" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B219" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="B219" s="18" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B221" s="18" t="s">
-        <v>50</v>
+        <v>6</v>
+      </c>
+      <c r="B221" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B223" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B224" s="6">
+      <c r="B222" s="6">
         <v>3</v>
       </c>
     </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="317.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>1</v>
+      </c>
+      <c r="B226" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C226" s="22" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B227" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C227" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="316.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>2</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
-        <v>1</v>
-      </c>
-      <c r="B228" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C228" s="22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B228" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="316.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>15</v>
@@ -6243,67 +6210,67 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
-        <v>3</v>
-      </c>
-      <c r="B230" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C230" s="12" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
-        <v>5</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
-        <v>6</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C233" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A232" s="15">
+        <v>7</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C232" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A233" s="15">
+        <v>8</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C233" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A234" s="15">
-        <v>7</v>
-      </c>
-      <c r="B234" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C234" s="18" t="s">
-        <v>97</v>
+        <v>9</v>
+      </c>
+      <c r="B234" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A235" s="15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B235" s="18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C235" s="12" t="s">
         <v>56</v>
@@ -6311,10 +6278,10 @@
     </row>
     <row r="236" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A236" s="15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B236" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C236" s="12" t="s">
         <v>56</v>
@@ -6322,34 +6289,12 @@
     </row>
     <row r="237" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A237" s="15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B237" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A238" s="15">
-        <v>11</v>
-      </c>
-      <c r="B238" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C238" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A239" s="15">
-        <v>12</v>
-      </c>
-      <c r="B239" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C239" s="12" t="s">
         <v>56</v>
       </c>
     </row>

--- a/API_Project/pet_store/Test_Cases/Tesst_Cases.xlsx
+++ b/API_Project/pet_store/Test_Cases/Tesst_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Automation_bootcamp\API_Project\pet_store\Test_Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE5CFE3-1825-4573-B30A-ACB0C4BFD1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9ABA51-25B1-43A0-8B4D-E6CE8F00CC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="108">
   <si>
     <t>Name of the test case</t>
   </si>
@@ -107,34 +107,16 @@
     <t>Add a pet.</t>
   </si>
   <si>
-    <t>Pet details.</t>
-  </si>
-  <si>
     <t>Get JSON file of the response.</t>
   </si>
   <si>
     <t>Check the value of "message" key.</t>
   </si>
   <si>
-    <t>Inventory data.</t>
-  </si>
-  <si>
-    <t>Pet status.</t>
-  </si>
-  <si>
     <t>Add an order.</t>
   </si>
   <si>
-    <t>Order details.</t>
-  </si>
-  <si>
     <t>Store order.</t>
-  </si>
-  <si>
-    <t>Order data.</t>
-  </si>
-  <si>
-    <t>User data.</t>
   </si>
   <si>
     <t>User login.</t>
@@ -4111,6 +4093,28 @@
   ],
   "status": "available"
 }</t>
+  </si>
+  <si>
+    <t>Generated pet id.</t>
+  </si>
+  <si>
+    <t>generated Pet id, pet name.</t>
+  </si>
+  <si>
+    <t>Generated order details (order id, pet id, pet name)</t>
+  </si>
+  <si>
+    <t>Order id.</t>
+  </si>
+  <si>
+    <t>User data (username, password)</t>
+  </si>
+  <si>
+    <t>User data (username, firstname, lastname, 
+user_status).</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
 </sst>
 </file>
@@ -4663,8 +4667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E9B10-6DEB-4A0D-98B6-D1464F09588B}">
   <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4701,7 +4705,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4709,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
@@ -4717,7 +4721,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4763,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>14</v>
@@ -4777,10 +4781,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -4788,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
@@ -4810,10 +4814,10 @@
         <v>5</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -4824,7 +4828,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -4853,7 +4857,7 @@
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4861,7 +4865,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -4869,7 +4873,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -4912,13 +4916,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -4929,10 +4933,10 @@
         <v>15</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4962,13 +4966,13 @@
         <v>5</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
@@ -4976,10 +4980,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5000,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5008,7 +5012,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5016,7 +5020,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
@@ -5024,7 +5028,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -5067,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>14</v>
@@ -5082,7 +5086,7 @@
         <v>15</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D62" s="24"/>
     </row>
@@ -5091,10 +5095,10 @@
         <v>3</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D63" s="24"/>
     </row>
@@ -5103,7 +5107,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>18</v>
@@ -5125,10 +5129,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -5152,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -5160,23 +5164,21 @@
         <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B76" s="1"/>
     </row>
     <row r="77" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5219,10 +5221,10 @@
         <v>1</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="179.4" x14ac:dyDescent="0.25">
@@ -5233,7 +5235,7 @@
         <v>15</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5241,7 +5243,7 @@
         <v>3</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>18</v>
@@ -5263,10 +5265,10 @@
         <v>5</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -5274,10 +5276,10 @@
         <v>6</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5299,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -5307,7 +5309,7 @@
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -5315,7 +5317,7 @@
         <v>3</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -5323,7 +5325,7 @@
         <v>4</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -5366,10 +5368,10 @@
         <v>1</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="138" x14ac:dyDescent="0.25">
@@ -5380,7 +5382,7 @@
         <v>15</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -5388,7 +5390,7 @@
         <v>3</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>18</v>
@@ -5410,10 +5412,10 @@
         <v>5</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -5421,10 +5423,10 @@
         <v>6</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -5432,10 +5434,10 @@
         <v>7</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="127.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -5443,10 +5445,10 @@
         <v>8</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -5475,7 +5477,7 @@
         <v>0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -5483,7 +5485,7 @@
         <v>2</v>
       </c>
       <c r="B123" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -5491,7 +5493,7 @@
         <v>3</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -5499,7 +5501,7 @@
         <v>4</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -5542,10 +5544,10 @@
         <v>1</v>
       </c>
       <c r="B132" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
@@ -5556,7 +5558,7 @@
         <v>15</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
@@ -5564,10 +5566,10 @@
         <v>1</v>
       </c>
       <c r="B134" s="23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
@@ -5578,7 +5580,7 @@
         <v>15</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
@@ -5586,10 +5588,10 @@
         <v>5</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -5597,10 +5599,10 @@
         <v>6</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -5608,10 +5610,10 @@
         <v>7</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -5619,10 +5621,10 @@
         <v>8</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -5643,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -5651,7 +5653,7 @@
         <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -5659,7 +5661,7 @@
         <v>3</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -5667,7 +5669,7 @@
         <v>4</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -5710,7 +5712,7 @@
         <v>1</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C155" s="12" t="s">
         <v>14</v>
@@ -5724,7 +5726,7 @@
         <v>15</v>
       </c>
       <c r="C156" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -5754,10 +5756,10 @@
         <v>5</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -5765,10 +5767,10 @@
         <v>6</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -5789,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -5797,7 +5799,7 @@
         <v>2</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -5811,7 +5813,7 @@
         <v>4</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -5854,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C178" s="12" t="s">
         <v>14</v>
@@ -5868,7 +5870,7 @@
         <v>15</v>
       </c>
       <c r="C179" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -5898,10 +5900,10 @@
         <v>5</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C182" s="18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -5909,10 +5911,10 @@
         <v>6</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -5933,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -5941,15 +5943,15 @@
         <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>32</v>
+      <c r="B193" s="18" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
@@ -5957,7 +5959,7 @@
         <v>4</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -6000,10 +6002,10 @@
         <v>1</v>
       </c>
       <c r="B201" s="23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -6039,7 +6041,7 @@
         <v>20</v>
       </c>
       <c r="D204" s="24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
@@ -6047,10 +6049,10 @@
         <v>5</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C205" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -6058,10 +6060,10 @@
         <v>6</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -6069,10 +6071,10 @@
         <v>6</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6080,10 +6082,10 @@
         <v>6</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -6104,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -6112,7 +6114,7 @@
         <v>2</v>
       </c>
       <c r="B217" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -6120,7 +6122,7 @@
         <v>3</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -6128,7 +6130,7 @@
         <v>4</v>
       </c>
       <c r="B219" s="18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -6171,10 +6173,10 @@
         <v>1</v>
       </c>
       <c r="B226" s="23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -6193,7 +6195,7 @@
         <v>3</v>
       </c>
       <c r="B228" s="18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C228" s="12" t="s">
         <v>14</v>
@@ -6237,10 +6239,10 @@
         <v>7</v>
       </c>
       <c r="B232" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C232" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -6248,10 +6250,10 @@
         <v>8</v>
       </c>
       <c r="B233" s="18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -6259,10 +6261,10 @@
         <v>9</v>
       </c>
       <c r="B234" s="18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -6270,10 +6272,10 @@
         <v>10</v>
       </c>
       <c r="B235" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -6281,10 +6283,10 @@
         <v>11</v>
       </c>
       <c r="B236" s="18" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
@@ -6292,10 +6294,10 @@
         <v>12</v>
       </c>
       <c r="B237" s="18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/API_Project/pet_store/Test_Cases/Tesst_Cases.xlsx
+++ b/API_Project/pet_store/Test_Cases/Tesst_Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Automation_bootcamp\API_Project\pet_store\Test_Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9ABA51-25B1-43A0-8B4D-E6CE8F00CC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE5BC98-3D3D-47FF-9028-157762650C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DB08689-E348-4E0B-8AED-3F8E8057D764}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="112">
   <si>
     <t>Name of the test case</t>
   </si>
@@ -162,91 +162,6 @@
   </si>
   <si>
     <t>The value is "available/pending/sold" as expected.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Generate a random pet_id and random 
-pet_name.
-convert generated details to a dictionary.
-send a post request to the server with url:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://petstore.swagger.io/v2/pet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with new dictionary (body).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Generate a random </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="177"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (available/pending/
-sold).
-send get request to the server with url:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://petstore.swagger.io/v2/pet/
-findByStatus?status=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{status}</t>
-    </r>
   </si>
   <si>
     <t>Valid web browser, valid internet connection,
@@ -490,1652 +405,6 @@
   </si>
   <si>
     <t>JSON file has been received:
-[
-    {
-        "id": 9223372036854572196,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572197,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572198,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "Puff",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572200,
-        "category": {
-            "id": 0,
-            "name": "Jerry"
-        },
-        "name": "Mouse",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "Mouse"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572208,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572213,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572216,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "Puff",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572220,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572232,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572237,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572241,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572243,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572244,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572248,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "Puff",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572249,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572261,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572266,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572267,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572270,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572277,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572303,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572304,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572305,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "Puff",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572314,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572318,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572341,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572344,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572347,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572348,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572349,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572355,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572357,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "Puff",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572360,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572370,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572372,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572375,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572376,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572377,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572414,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572415,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572416,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572417,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "Puff",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572439,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572453,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572483,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572489,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572498,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572501,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "Puff",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572502,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572505,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572508,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572509,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572510,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572512,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572513,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572514,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572527,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572530,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572535,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572536,
-        "category": {
-            "id": 0,
-            "name": "dog"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572558,
-        "category": {
-            "id": 1,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 102,
-        "category": {
-            "id": 102,
-            "name": "Cat"
-        },
-        "name": "Tom",
-        "photoUrls": [
-            "CatURL"
-        ],
-        "tags": [
-            {
-                "id": 1002,
-                "name": "Angry"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572560,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572561,
-        "category": {
-            "id": 11212121212,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572562,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572565,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572568,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "Puff",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 44287874,
-        "category": {
-            "id": 56142504,
-            "name": "proident in culpa"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "deserunt nisi occaecat adipisicing elit",
-            "volup"
-        ],
-        "tags": [
-            {
-                "id": 75841058,
-                "name": "enim elit labore aute"
-            },
-            {
-                "id": 81012343,
-                "name": "ullamco eiusmod aute pariatur"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 586,
-        "category": {
-            "id": 2,
-            "name": "Dogs"
-        },
-        "name": "",
-        "photoUrls": [
-            "photoUrl for pet"
-        ],
-        "tags": [
-            {
-                "id": 10,
-                "name": "tag name"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 44403346,
-        "category": {
-            "id": -7356342,
-            "name": "qui dolor"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "dolore mollit dolo",
-            "qui in laborum "
-        ],
-        "tags": [
-            {
-                "id": 29212366,
-                "name": "ullamc"
-            },
-            {
-                "id": 68937462,
-                "name": "et in sit"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572569,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 50002,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572570,
-        "category": {
-            "id": -14593227,
-            "name": "et veniam Lorem occaecat cillum"
-        },
-        "name": "ЗСУ",
-        "photoUrls": [
-            "anim amet laborum ut",
-            "fugiat adipisicing"
-        ],
-        "tags": [
-            {
-                "id": -89704684,
-                "name": "consequat irure mollit voluptate qui"
-            },
-            {
-                "id": 55112396,
-                "name": "se"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572571,
-        "category": {
-            "id": -3647201,
-            "name": "aliqua dolore"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "commodo id Lorem dolor",
-            "laborum anim non sunt"
-        ],
-        "tags": [
-            {
-                "id": -70487179,
-                "name": "magna non"
-            },
-            {
-                "id": -97224183,
-                "name": "aliquip enim"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572572,
-        "category": {
-            "id": -22028245,
-            "name": "ad labore sunt"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "commodo aute veniam",
-            "tempor"
-        ],
-        "tags": [
-            {
-                "id": 47985645,
-                "name": "quis consequat exercitation"
-            },
-            {
-                "id": 84422713,
-                "name": "fugiat id"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 420,
-        "category": {
-            "id": 42,
-            "name": "Chihuahua"
-        },
-        "name": "PasBre",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572576,
-        "category": {
-            "id": 30364987,
-            "name": "amet do"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "ad irure dolor voluptate",
-            "elit dolore minim proident"
-        ],
-        "tags": [
-            {
-                "id": -79687161,
-                "name": "nostrud sunt"
-            },
-            {
-                "id": 86727676,
-                "name": "labore nisi"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572577,
-        "category": {
-            "id": 0,
-            "name": "Pomeranian"
-        },
-        "name": "Yeontn",
-        "photoUrls": [
-            "https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwikibio.in%2Fyeontan%2F&amp;psig=AOvVaw0UdJeOGlk-jKSOtT-nplW1&amp;ust=1682581409377000&amp;source=images&amp;cd=vfe&amp;ved=0CA4QjRxqFwoTCMCQvJiuyP4CFQAAAAAdAAAAABAI"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "Dog"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572578,
-        "category": {
-            "id": 16166060,
-            "name": "Lorem aliquip"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "cupidatat magna dolore Ut",
-            "est elit consequat laboris"
-        ],
-        "tags": [
-            {
-                "id": 49478738,
-                "name": "et"
-            },
-            {
-                "id": -40327458,
-                "name": "laborum do nulla"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572579,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572589,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "fish",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572596,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 2293981,
-        "category": {
-            "id": 61152320,
-            "name": "qui dolore nostrud Duis"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "in esse dolore",
-            "consectetur dolore exercitation"
-        ],
-        "tags": [
-            {
-                "id": 16333697,
-                "name": "incididunt et nostrud"
-            },
-            {
-                "id": -53725039,
-                "name": "aute fugiat"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 6089,
-        "category": {
-            "id": 6089,
-            "name": "nemo 1"
-        },
-        "name": "fishs",
-        "photoUrls": [
-            "https://w.forfun.com/fetch/ec/ec21683f58319755608a051e2a73c659.jpeg"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572607,
-        "category": {
-            "id": 0,
-            "name": "Body"
-        },
-        "name": "Body",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "string"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 5786256,
-        "category": {
-            "id": -44713072,
-            "name": "reprehenderit irure"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "ut nisi ea tempor",
-            "reprehenderit"
-        ],
-        "tags": [
-            {
-                "id": -18411144,
-                "name": "aliqua reprehenderit"
-            },
-            {
-                "id": 86685319,
-                "name": "minim reprehenderit laboris c"
-            }
-        ],
-        "status": "available"
-    },
-    {
-        "id": 9223372036854572608,
-        "category": {
-            "id": 0,
-            "name": "string"
-        },
-        "name": "doggie",
-        "photoUrls": [
-            "string"
-        ],
-        "tags": [
-            {
-                "id": 0,
-                "name": "stri</t>
-  </si>
-  <si>
-    <t>JSON file has been received:
-{
-    "id": 1,
-    "category": {
-        "id": 0,
-        "name": "string"
-    },
-    "name": "doggy",
-    "photoUrls": [
-        "string"
-    ],
-    "tags": [
-        {
-            "id": 0,
-            "name": "string"
-        }
-    ],
-    "status": "available"
-}</t>
-  </si>
-  <si>
-    <t>JSON file has been received:
-{
-    "sold": 68,
-    "{{PetStatus-Updated}}": 2,
-    "SOLD": 1,
-    "string": 606,
-    "availeble": 1,
-    "pending": 88,
-    "available": 227,
-    "avalible": 1,
-    "{{category}}": 1
-}</t>
-  </si>
-  <si>
-    <t>JSON file has been received:
 {
     "id": "generated",
     "petId": "generated",
@@ -2195,27 +464,6 @@
 ]</t>
   </si>
   <si>
-    <t>Request has been sent:
-{
-    "id": 1,
-    "category": {
-        "id": 0,
-        "name": "string"
-    },
-    "name": "doggy",
-    "photoUrls": [
-        "string"
-    ],
-    "tags": [
-        {
-            "id": 0,
-            "name": "string"
-        }
-    ],
-    "status": "available"
-}</t>
-  </si>
-  <si>
     <t>Response has been received:
 {
     "sold": 68,
@@ -4018,9 +2266,36 @@
     <t>Pet id.</t>
   </si>
   <si>
+    <t>Check if received "status" value is "available"</t>
+  </si>
+  <si>
+    <t>Value is "available"</t>
+  </si>
+  <si>
+    <t>Generated pet id.</t>
+  </si>
+  <si>
+    <t>generated Pet id, pet name.</t>
+  </si>
+  <si>
+    <t>Generated order details (order id, pet id, pet name)</t>
+  </si>
+  <si>
+    <t>Order id.</t>
+  </si>
+  <si>
+    <t>User data (username, password)</t>
+  </si>
+  <si>
+    <t>User data (username, firstname, lastname, 
+user_status).</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
     <r>
-      <t>Send a get request to url:
-https://petstore.swagger.io/v2/pet/</t>
+      <t xml:space="preserve">Generate a random </t>
     </r>
     <r>
       <rPr>
@@ -4031,7 +2306,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">{id} </t>
+      <t>status</t>
     </r>
     <r>
       <rPr>
@@ -4039,20 +2314,48 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="177"/>
         <scheme val="minor"/>
       </rPr>
-      <t>with the
+      <t xml:space="preserve"> (available/pending/
+sold).
+</t>
+    </r>
+  </si>
+  <si>
+    <t>send get request to the server with url:
+https://petstore.swagger.io/v2/pet/
+findByStatus?status={status}</t>
+  </si>
+  <si>
+    <t>Status has been generated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate a random pet_id and random 
+pet_name.
+</t>
+  </si>
+  <si>
+    <t>Details has been generated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+send a post request to the server with url:
+https://petstore.swagger.io/v2/pet with new dictionary (generated details).</t>
+  </si>
+  <si>
+    <t>Send a get request to url:
+https://petstore.swagger.io/v2/pet/{id} with the
 generated pet_id.</t>
-    </r>
-  </si>
-  <si>
-    <t>Check if received "status" value is "available"</t>
-  </si>
-  <si>
-    <t>Value is "available"</t>
-  </si>
-  <si>
-    <t>JSON file has been received:
+  </si>
+  <si>
+    <t>Generated a pet_id.</t>
+  </si>
+  <si>
+    <t>Pet_it has been generated.</t>
+  </si>
+  <si>
+    <t>Respnse file has been received:
 {
   "id": 2,
   "category": {
@@ -4073,48 +2376,16 @@
 }</t>
   </si>
   <si>
-    <t>Response has been received:
-JSON file has been received:
-{
-  "id": 2,
-  "category": {
-    "id": 0,
-    "name": "string"
-  },
-  "name": "generated",
-  "photoUrls": [
-    "string"
-  ],
-  "tags": [
-    {
-      "id": 0,
-      "name": "string"
-    }
-  ],
-  "status": "available"
-}</t>
-  </si>
-  <si>
-    <t>Generated pet id.</t>
-  </si>
-  <si>
-    <t>generated Pet id, pet name.</t>
-  </si>
-  <si>
-    <t>Generated order details (order id, pet id, pet name)</t>
-  </si>
-  <si>
-    <t>Order id.</t>
-  </si>
-  <si>
-    <t>User data (username, password)</t>
-  </si>
-  <si>
-    <t>User data (username, firstname, lastname, 
-user_status).</t>
-  </si>
-  <si>
-    <t>username</t>
+    <t>send a post request to the server with url:
+https://petstore.swagger.io/v2/store/order with new  body.</t>
+  </si>
+  <si>
+    <t>Details has been gnerated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Generate a random order_id and pet_it and  
+quantity.
+</t>
   </si>
 </sst>
 </file>
@@ -4265,7 +2536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4319,9 +2590,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4330,6 +2598,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4665,10 +2939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84E9B10-6DEB-4A0D-98B6-D1464F09588B}">
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="C219" sqref="C219"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4679,12 +2953,12 @@
     <col min="4" max="4" width="23.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="35.4" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="35.4" x14ac:dyDescent="0.6">
       <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -4692,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -4700,7 +2974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -4708,23 +2982,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -4732,7 +3006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -4740,7 +3014,7 @@
         <v>45493</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -4748,10 +3022,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
@@ -4762,65 +3036,65 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="106.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>3</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>5</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>6</v>
       </c>
@@ -4831,12 +3105,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>1</v>
       </c>
@@ -4844,7 +3118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>0</v>
       </c>
@@ -4852,7 +3126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>2</v>
       </c>
@@ -4860,23 +3134,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>5</v>
       </c>
@@ -4915,39 +3189,38 @@
       <c r="A38" s="3">
         <v>1</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" spans="1:4" ht="100.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>2</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="1:4" ht="116.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>3</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>18</v>
+      <c r="B40" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4955,24 +3228,21 @@
         <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15">
-        <v>5</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
@@ -4980,10 +3250,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5004,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5012,7 +3282,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5020,7 +3290,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
@@ -5028,7 +3298,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -5066,41 +3336,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>1</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="276" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="D61" s="23"/>
+    </row>
+    <row r="62" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>2</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" s="24"/>
+        <v>105</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" ht="262.2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>3</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>23</v>
+      <c r="B63" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="24"/>
+        <v>108</v>
+      </c>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
@@ -5129,10 +3399,10 @@
         <v>6</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -5178,7 +3448,7 @@
         <v>4</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -5220,11 +3490,11 @@
       <c r="A84" s="3">
         <v>1</v>
       </c>
-      <c r="B84" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>85</v>
+      <c r="B84" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="179.4" x14ac:dyDescent="0.25">
@@ -5235,7 +3505,7 @@
         <v>15</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -5249,129 +3519,127 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>4</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>5</v>
       </c>
-      <c r="B88" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>6</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
+      <c r="B88" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="96" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B94" s="5">
         <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B100" s="18" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B101" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B102" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B102" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B105" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C105" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="138" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+    <row r="106" spans="1:3" ht="58.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
         <v>1</v>
       </c>
-      <c r="B107" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C107" s="22" t="s">
-        <v>80</v>
+      <c r="B106" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="138" x14ac:dyDescent="0.25">
@@ -5382,7 +3650,7 @@
         <v>15</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -5407,652 +3675,652 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>5</v>
-      </c>
-      <c r="B111" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C112" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>8</v>
+      </c>
+      <c r="B113" s="24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>7</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="127.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <v>8</v>
-      </c>
-      <c r="B114" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="C113" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="15"/>
+      <c r="B114" s="19"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="19"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-      <c r="B116" s="19"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="9" t="s">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="5">
+      <c r="B119" s="5">
         <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B125" s="18" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B126" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B127" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B127" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B130" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C131" s="11" t="s">
+      <c r="C130" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="138" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="138" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>1</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>1</v>
-      </c>
-      <c r="B132" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C132" s="22" t="s">
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>2</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C133" s="22" t="s">
-        <v>83</v>
+        <v>1</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>1</v>
-      </c>
-      <c r="B134" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C134" s="22" t="s">
-        <v>82</v>
+        <v>2</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="124.2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>5</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C136" s="18" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
-        <v>6</v>
+      <c r="A137" s="20">
+        <v>7</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A138" s="20">
+        <v>8</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="5">
         <v>7</v>
       </c>
-      <c r="B138" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A139" s="20">
-        <v>8</v>
-      </c>
-      <c r="B139" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B143" s="5">
-        <v>7</v>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B146" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B147" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B148" s="18" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B149" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B150" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B150" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B153" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C153" s="11" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>1</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>1</v>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>2</v>
-      </c>
-      <c r="B156" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C156" s="18" t="s">
-        <v>84</v>
+        <v>3</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>4</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>5</v>
-      </c>
-      <c r="B159" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C159" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
         <v>6</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8"/>
-      <c r="C163" s="8"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="9" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B165" s="5">
         <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="B168" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B169" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B170" s="1"/>
-    </row>
-    <row r="171" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B171" s="18" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B172" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B173" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B173" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="10" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B176" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C177" s="11" t="s">
+      <c r="C176" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>1</v>
+      </c>
+      <c r="B177" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>1</v>
-      </c>
-      <c r="B178" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C179" s="18" t="s">
-        <v>86</v>
+        <v>17</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <v>4</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="82.8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <v>5</v>
-      </c>
-      <c r="B182" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C182" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
         <v>6</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="8"/>
-      <c r="B186" s="8"/>
-      <c r="C186" s="8"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B188" s="5">
         <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B191" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B192" t="s">
-        <v>57</v>
+        <v>3</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B193" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B194" s="18" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B195" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B196" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B197" s="6">
+      <c r="B196" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="10" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B199" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C200" s="11" t="s">
+      <c r="C199" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="317.39999999999998" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" ht="317.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>1</v>
+      </c>
+      <c r="B200" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C200" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
-        <v>1</v>
-      </c>
-      <c r="B201" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C201" s="22" t="s">
-        <v>76</v>
+        <v>2</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="312" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="312" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D203" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
-        <v>4</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D204" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="82.8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
-        <v>5</v>
-      </c>
-      <c r="B205" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C205" s="18" t="s">
-        <v>75</v>
+        <v>6</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -6060,10 +4328,10 @@
         <v>6</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -6071,233 +4339,222 @@
         <v>6</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B213" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
-        <v>6</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="8"/>
-      <c r="B211" s="8"/>
-      <c r="C211" s="8"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B214" s="5">
-        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="B216" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B217" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B219" s="18" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B220" s="7">
+        <v>45493</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B221" s="7">
-        <v>45493</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B222" s="6">
+      <c r="B221" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="10" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B224" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C225" s="11" t="s">
+      <c r="C224" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="317.39999999999998" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="317.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>1</v>
+      </c>
+      <c r="B225" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C225" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
-        <v>1</v>
-      </c>
-      <c r="B226" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C226" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
-        <v>2</v>
-      </c>
-      <c r="B227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C227" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="316.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>4</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
-        <v>3</v>
-      </c>
-      <c r="B228" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C228" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="316.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
-        <v>6</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C231" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" ht="151.80000000000001" x14ac:dyDescent="0.25">
+      <c r="A231" s="15">
+        <v>7</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C231" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A232" s="15">
-        <v>7</v>
-      </c>
-      <c r="B232" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C232" s="18" t="s">
-        <v>91</v>
+        <v>8</v>
+      </c>
+      <c r="B232" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C232" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A233" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B233" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A234" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B234" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A235" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B235" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A236" s="15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B236" s="18" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A237" s="15">
-        <v>12</v>
-      </c>
-      <c r="B237" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C237" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
